--- a/Organisatorisch/Graph_final/Konzepte_CSV_03_06_23.xlsx
+++ b/Organisatorisch/Graph_final/Konzepte_CSV_03_06_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kateryna_hamii/Bachelorarbeit_v2_fromGit/Organisatorisch/Graph_final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B8530D-9A17-5B40-8301-89B47D59C54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660E0216-122C-A14B-959B-9703EE8F2286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2258,14 +2258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2276,6 +2268,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2326,11 +2325,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2340,6 +2338,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2562,7 +2561,7 @@
   <dimension ref="A1:G988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2700,7 +2699,7 @@
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>673</v>
       </c>
       <c r="E8" s="2"/>
@@ -2827,7 +2826,7 @@
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -3243,7 +3242,7 @@
       <c r="C43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>681</v>
       </c>
       <c r="E43" s="2"/>
@@ -3460,7 +3459,7 @@
       <c r="B57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -3529,7 +3528,7 @@
       <c r="B62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D62" s="4"/>
@@ -3680,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>147</v>
       </c>
       <c r="E72" s="2"/>
@@ -3728,10 +3727,10 @@
       <c r="B75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>154</v>
       </c>
       <c r="E75" s="2"/>
@@ -3746,7 +3745,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>156</v>
       </c>
       <c r="E76" s="2"/>
@@ -3791,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="4"/>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>162</v>
       </c>
       <c r="E79" s="2"/>
@@ -3820,7 +3819,7 @@
       <c r="B81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>166</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -3837,10 +3836,10 @@
       <c r="B82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>170</v>
       </c>
       <c r="E82" s="2"/>
@@ -3855,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>172</v>
       </c>
       <c r="E83" s="2"/>
@@ -3869,7 +3868,7 @@
       <c r="B84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>174</v>
       </c>
       <c r="D84" s="4" t="s">
@@ -3947,7 +3946,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="4"/>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>685</v>
       </c>
       <c r="E89" s="2"/>
@@ -3977,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E91" s="2"/>
@@ -3992,7 +3991,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="7" t="s">
         <v>189</v>
       </c>
       <c r="E92" s="2"/>
@@ -4037,7 +4036,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="4"/>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="7" t="s">
         <v>195</v>
       </c>
       <c r="E95" s="2"/>
@@ -4051,7 +4050,7 @@
       <c r="B96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>197</v>
       </c>
       <c r="D96" s="4" t="s">
@@ -4114,7 +4113,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="7" t="s">
         <v>205</v>
       </c>
       <c r="E100" s="2"/>
@@ -4230,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="4"/>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="7" t="s">
         <v>216</v>
       </c>
       <c r="E108" s="2"/>
@@ -4260,7 +4259,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="4"/>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="7" t="s">
         <v>220</v>
       </c>
       <c r="E110" s="2"/>
@@ -4301,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="4"/>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>686</v>
       </c>
       <c r="E113" s="2"/>
@@ -4358,10 +4357,10 @@
       <c r="B117" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="7" t="s">
         <v>687</v>
       </c>
       <c r="E117" s="2"/>
@@ -4422,7 +4421,7 @@
       <c r="B121" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>235</v>
       </c>
       <c r="D121" s="4"/>
@@ -4452,7 +4451,7 @@
       <c r="B123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="5" t="s">
         <v>691</v>
       </c>
       <c r="D123" s="4" t="s">
@@ -4469,7 +4468,7 @@
       <c r="B124" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>240</v>
       </c>
       <c r="D124" s="4" t="s">
@@ -4500,7 +4499,7 @@
         <v>202</v>
       </c>
       <c r="C126" s="4"/>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="8" t="s">
         <v>244</v>
       </c>
       <c r="E126" s="3"/>
@@ -4527,10 +4526,10 @@
       <c r="B128" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="D128" s="7" t="s">
         <v>248</v>
       </c>
       <c r="E128" s="2"/>
@@ -4574,7 +4573,7 @@
       <c r="B131" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>253</v>
       </c>
       <c r="D131" s="4"/>
@@ -4620,7 +4619,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="4"/>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="7" t="s">
         <v>258</v>
       </c>
       <c r="E134" s="2"/>
@@ -4634,7 +4633,7 @@
       <c r="B135" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>260</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -4652,7 +4651,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="4"/>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="7" t="s">
         <v>263</v>
       </c>
       <c r="E136" s="2"/>
@@ -4667,7 +4666,7 @@
         <v>202</v>
       </c>
       <c r="C137" s="4"/>
-      <c r="D137" s="8" t="s">
+      <c r="D137" s="7" t="s">
         <v>634</v>
       </c>
       <c r="E137" s="2"/>
@@ -4780,7 +4779,7 @@
       <c r="B145" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>274</v>
       </c>
       <c r="D145" s="4" t="s">
@@ -4798,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="4"/>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="9" t="s">
         <v>277</v>
       </c>
       <c r="E146" s="2"/>
@@ -5132,7 +5131,7 @@
       <c r="B169" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D169" s="4" t="s">
@@ -5164,7 +5163,7 @@
       <c r="B171" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="11" t="s">
         <v>318</v>
       </c>
       <c r="D171" s="4" t="s">
@@ -5175,14 +5174,14 @@
       <c r="G171" s="2"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="A172" s="11" t="s">
         <v>320</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C172" s="4"/>
-      <c r="D172" s="6" t="s">
+      <c r="D172" s="5" t="s">
         <v>692</v>
       </c>
       <c r="E172" s="2"/>
@@ -5190,16 +5189,16 @@
       <c r="G172" s="2"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="7" t="s">
         <v>321</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="7" t="s">
         <v>323</v>
       </c>
       <c r="E173" s="2"/>
@@ -5207,14 +5206,14 @@
       <c r="G173" s="2"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="8" t="s">
+      <c r="A174" s="7" t="s">
         <v>324</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C174" s="4"/>
-      <c r="D174" s="8" t="s">
+      <c r="D174" s="7" t="s">
         <v>322</v>
       </c>
       <c r="E174" s="2"/>
@@ -5222,14 +5221,14 @@
       <c r="G174" s="2"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="8" t="s">
+      <c r="A175" s="7" t="s">
         <v>325</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C175" s="4"/>
-      <c r="D175" s="8" t="s">
+      <c r="D175" s="7" t="s">
         <v>697</v>
       </c>
       <c r="E175" s="2"/>
@@ -5250,7 +5249,7 @@
       <c r="G176" s="2"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="8" t="s">
+      <c r="A177" s="7" t="s">
         <v>327</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -5285,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="C179" s="4"/>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="7" t="s">
         <v>331</v>
       </c>
       <c r="E179" s="2"/>
@@ -5299,7 +5298,7 @@
       <c r="B180" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="5" t="s">
         <v>333</v>
       </c>
       <c r="D180" s="4"/>
@@ -5373,7 +5372,7 @@
         <v>5</v>
       </c>
       <c r="C185" s="4"/>
-      <c r="D185" s="8" t="s">
+      <c r="D185" s="7" t="s">
         <v>340</v>
       </c>
       <c r="E185" s="2"/>
@@ -5402,7 +5401,7 @@
       <c r="B187" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="7" t="s">
         <v>344</v>
       </c>
       <c r="D187" s="4"/>
@@ -5418,7 +5417,7 @@
         <v>202</v>
       </c>
       <c r="C188" s="4"/>
-      <c r="D188" s="8" t="s">
+      <c r="D188" s="7" t="s">
         <v>346</v>
       </c>
       <c r="E188" s="2"/>
@@ -5475,7 +5474,7 @@
       <c r="B192" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="7" t="s">
         <v>352</v>
       </c>
       <c r="D192" s="4"/>
@@ -5613,7 +5612,7 @@
         <v>5</v>
       </c>
       <c r="C201" s="4"/>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="7" t="s">
         <v>369</v>
       </c>
       <c r="E201" s="2"/>
@@ -5770,7 +5769,7 @@
         <v>202</v>
       </c>
       <c r="C212" s="4"/>
-      <c r="D212" t="s">
+      <c r="D212" s="11" t="s">
         <v>701</v>
       </c>
       <c r="E212" s="2"/>
@@ -5836,14 +5835,14 @@
       <c r="G216" s="2"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="A217" s="11" t="s">
         <v>389</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C217" s="4"/>
-      <c r="D217" s="6" t="s">
+      <c r="D217" s="5" t="s">
         <v>693</v>
       </c>
       <c r="E217" s="2"/>
@@ -5879,14 +5878,14 @@
       <c r="G219" s="2"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="A220" s="11" t="s">
         <v>393</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C220" s="4"/>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="5" t="s">
         <v>694</v>
       </c>
       <c r="E220" s="2"/>
@@ -5915,7 +5914,7 @@
       <c r="B222" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="C222" s="7" t="s">
         <v>396</v>
       </c>
       <c r="D222" s="4"/>
@@ -5945,7 +5944,7 @@
       <c r="B224" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C224" s="10" t="s">
         <v>711</v>
       </c>
       <c r="D224" s="4" t="s">
@@ -6095,10 +6094,10 @@
       <c r="B234" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="D234" s="8" t="s">
+      <c r="D234" s="7" t="s">
         <v>414</v>
       </c>
       <c r="E234" s="2"/>
@@ -6152,7 +6151,7 @@
         <v>5</v>
       </c>
       <c r="C238" s="4"/>
-      <c r="D238" t="s">
+      <c r="D238" s="11" t="s">
         <v>668</v>
       </c>
       <c r="E238" s="2"/>
@@ -6240,7 +6239,7 @@
         <v>5</v>
       </c>
       <c r="C244" s="4"/>
-      <c r="D244" s="8" t="s">
+      <c r="D244" s="7" t="s">
         <v>426</v>
       </c>
       <c r="E244" s="2"/>
@@ -6254,7 +6253,7 @@
       <c r="B245" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C245" s="5" t="s">
         <v>428</v>
       </c>
       <c r="D245" s="4" t="s">
@@ -6300,7 +6299,7 @@
         <v>5</v>
       </c>
       <c r="C248" s="4"/>
-      <c r="D248" t="s">
+      <c r="D248" s="11" t="s">
         <v>703</v>
       </c>
       <c r="E248" s="2"/>
@@ -6480,7 +6479,7 @@
       <c r="B261" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C261" s="8" t="s">
+      <c r="C261" s="7" t="s">
         <v>449</v>
       </c>
       <c r="D261" s="4"/>
@@ -6605,7 +6604,7 @@
         <v>5</v>
       </c>
       <c r="C269" s="4"/>
-      <c r="D269" t="s">
+      <c r="D269" s="11" t="s">
         <v>230</v>
       </c>
       <c r="E269" s="2"/>
@@ -6725,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="C277" s="4"/>
-      <c r="D277" s="8" t="s">
+      <c r="D277" s="7" t="s">
         <v>475</v>
       </c>
       <c r="E277" s="2"/>
@@ -6782,7 +6781,7 @@
       <c r="B281" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C281" s="8" t="s">
+      <c r="C281" s="7" t="s">
         <v>482</v>
       </c>
       <c r="D281" s="4"/>
@@ -6844,7 +6843,7 @@
       <c r="B285" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C285" s="8" t="s">
+      <c r="C285" s="7" t="s">
         <v>490</v>
       </c>
       <c r="D285" s="4" t="s">
@@ -6937,7 +6936,7 @@
         <v>5</v>
       </c>
       <c r="C291" s="4"/>
-      <c r="D291" s="8" t="s">
+      <c r="D291" s="7" t="s">
         <v>501</v>
       </c>
       <c r="E291" s="2"/>
@@ -7080,7 +7079,7 @@
       <c r="B301" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C301" s="8" t="s">
+      <c r="C301" s="7" t="s">
         <v>516</v>
       </c>
       <c r="D301" s="4"/>
@@ -7098,7 +7097,7 @@
       <c r="C302" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="D302" s="8" t="s">
+      <c r="D302" s="7" t="s">
         <v>519</v>
       </c>
       <c r="E302" s="2"/>
@@ -7143,7 +7142,7 @@
         <v>5</v>
       </c>
       <c r="C305" s="4"/>
-      <c r="D305" s="8" t="s">
+      <c r="D305" s="7" t="s">
         <v>525</v>
       </c>
       <c r="E305" s="2"/>
@@ -7157,7 +7156,7 @@
       <c r="B306" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C306" s="8" t="s">
+      <c r="C306" s="7" t="s">
         <v>527</v>
       </c>
       <c r="D306" s="4"/>
@@ -7206,7 +7205,7 @@
       <c r="B309" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C309" s="8" t="s">
+      <c r="C309" s="7" t="s">
         <v>534</v>
       </c>
       <c r="D309" s="4"/>
@@ -7451,10 +7450,10 @@
       <c r="B326" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C326" s="8" t="s">
+      <c r="C326" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="D326" s="8" t="s">
+      <c r="D326" s="7" t="s">
         <v>554</v>
       </c>
       <c r="E326" s="2"/>
@@ -7733,7 +7732,7 @@
       <c r="B346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="8" t="s">
+      <c r="C346" s="7" t="s">
         <v>581</v>
       </c>
       <c r="D346" s="4" t="s">
@@ -7865,7 +7864,7 @@
       <c r="G355" s="2"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A356" s="8" t="s">
+      <c r="A356" s="7" t="s">
         <v>664</v>
       </c>
       <c r="B356" s="4" t="s">
@@ -7913,7 +7912,7 @@
         <v>5</v>
       </c>
       <c r="C359" s="4"/>
-      <c r="D359" s="8" t="s">
+      <c r="D359" s="7" t="s">
         <v>595</v>
       </c>
       <c r="E359" s="2"/>
@@ -8003,7 +8002,7 @@
         <v>5</v>
       </c>
       <c r="C365" s="4"/>
-      <c r="D365" s="8" t="s">
+      <c r="D365" s="7" t="s">
         <v>606</v>
       </c>
       <c r="E365" s="2"/>
@@ -8017,7 +8016,7 @@
       <c r="B366" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C366" s="8" t="s">
+      <c r="C366" s="7" t="s">
         <v>608</v>
       </c>
       <c r="D366" s="4" t="s">
@@ -8081,10 +8080,10 @@
       <c r="B370" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C370" s="8" t="s">
+      <c r="C370" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="D370" s="8" t="s">
+      <c r="D370" s="7" t="s">
         <v>619</v>
       </c>
       <c r="E370" s="2"/>
